--- a/data/SRA_accessions.xlsx
+++ b/data/SRA_accessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanbergland/Documents/GitHub/CompEvoBio_modules/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49910108-E833-7041-B3BE-C9CD5C6090D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8247A239-BA8F-454F-84D3-060A7855A44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1480" windowWidth="28800" windowHeight="14760" xr2:uid="{8289C7F0-2534-2949-8E35-6B8C80360F30}"/>
+    <workbookView xWindow="15900" yWindow="740" windowWidth="39280" windowHeight="21440" xr2:uid="{8289C7F0-2534-2949-8E35-6B8C80360F30}"/>
   </bookViews>
   <sheets>
     <sheet name="accessions" sheetId="1" r:id="rId1"/>
@@ -6530,7 +6530,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6571,7 +6571,7 @@
       <c r="D2" s="6">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>353</v>
       </c>
     </row>
@@ -6588,7 +6588,7 @@
       <c r="D3" s="5">
         <v>36</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>354</v>
       </c>
     </row>
@@ -6605,7 +6605,7 @@
       <c r="D4" s="6">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>355</v>
       </c>
     </row>
@@ -6622,7 +6622,7 @@
       <c r="D5" s="5">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>505</v>
       </c>
     </row>
@@ -6639,7 +6639,7 @@
       <c r="D6" s="6">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>559</v>
       </c>
     </row>
@@ -6656,7 +6656,7 @@
       <c r="D7" s="6">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>700</v>
       </c>
     </row>
@@ -6673,7 +6673,7 @@
       <c r="D8" s="6">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>889</v>
       </c>
     </row>
@@ -6690,7 +6690,7 @@
       <c r="D9" s="6">
         <v>6</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>943</v>
       </c>
     </row>
@@ -6707,7 +6707,7 @@
       <c r="D10" s="6">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>1123</v>
       </c>
     </row>
@@ -6724,7 +6724,7 @@
       <c r="D11" s="6">
         <v>12</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>1180</v>
       </c>
     </row>
@@ -6741,7 +6741,7 @@
       <c r="D12" s="6">
         <v>59</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>1181</v>
       </c>
     </row>
@@ -6758,7 +6758,7 @@
       <c r="D13" s="6">
         <v>21</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>1799</v>
       </c>
     </row>
@@ -6766,6 +6766,20 @@
       <c r="C15" s="8"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{DD8F780E-691C-DA4A-9C2B-C94B4399BC7C}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{A3A68A52-45E4-9246-8B6B-F20084BA88E1}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{E9786E44-C3E8-CE45-A0A2-9BB706A027C5}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{DF3DD699-E817-1343-AF0F-DF8E45C700DA}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{3F787850-E11B-4E4C-B428-A5C52A907381}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{1DF3BAD9-C40A-6545-87FF-1D7DC3B8A95A}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{62FA44B0-8CCB-B748-B221-614579B12607}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{63B459A7-56FC-DC4F-BF52-6F2B942E9F72}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{DEE9B50F-B4F6-D74A-82E4-8D7E71B7C410}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{4D557DDE-4D7A-3E43-A407-68DC13F48378}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{31F3B9C6-33EE-9B4A-BD7D-269B20F25EE5}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{F0DA30E7-17DB-4747-8AC3-8F41CD5BF15D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18549,7 +18563,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAC5751-DE21-C64F-AF44-30216D53620C}">
   <dimension ref="A1:AU22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
